--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,11 +764,11 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -775,8 +782,14 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,14 +1096,20 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,13 +1164,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1142,11 +1201,11 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1204,11 +1271,11 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1248,11 +1321,11 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1266,34 +1339,40 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1308,10 +1387,16 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1349,13 +1434,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1481,13 +1584,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1525,13 +1634,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,37 +1689,43 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1616,10 +1737,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1732,11 +1871,11 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1789,13 +1934,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1877,62 +2034,74 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,16 +2334,22 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2185,18 +2382,24 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2229,10 +2432,16 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,11 +2704,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2480,11 +2719,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,16 +2784,22 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2581,10 +2832,16 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,16 +2878,18 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2661,10 +2922,16 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,27 +2972,33 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>300</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -2737,10 +3010,10 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2749,27 +3022,33 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
-        <v>300</v>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2784,19 +3063,25 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,25 +3324,31 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
-        <v>300</v>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3048,19 +3363,25 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,16 +3594,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-29000</v>
+        <v>-29100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F72" s="3">
         <v>-29000</v>
@@ -3271,10 +3618,10 @@
         <v>-29000</v>
       </c>
       <c r="H72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="I72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="J72" s="3">
         <v>-28900</v>
@@ -3286,19 +3633,25 @@
         <v>-28900</v>
       </c>
       <c r="M72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="N72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="O72" s="3">
         <v>-28800</v>
       </c>
       <c r="P72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="R72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,25 +3794,31 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
-        <v>-300</v>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -3456,10 +3827,10 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -3471,10 +3842,16 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3605,13 +3994,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +4023,15 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3931,13 +4364,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4363,13 +4854,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,8 +774,8 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,14 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1170,13 +1197,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,8 +1237,8 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1277,8 +1311,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1327,8 +1364,8 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,11 +1411,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1393,10 +1433,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1440,13 +1483,16 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1590,13 +1642,16 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1640,13 +1695,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,14 +1782,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1743,10 +1804,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1877,8 +1947,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1940,13 +2013,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2040,68 +2119,74 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,19 +2436,22 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2388,21 +2487,24 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2438,10 +2540,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2710,8 +2830,8 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2725,8 +2845,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,19 +2913,22 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2838,10 +2964,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,19 +3010,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2928,10 +3059,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,21 +3112,24 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="3">
         <v>300</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3001,7 +3138,7 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3016,7 +3153,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3028,21 +3165,24 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" s="3">
         <v>300</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3051,7 +3191,7 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3069,7 +3209,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3078,10 +3218,13 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,19 +3485,22 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66" s="3">
         <v>300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -3351,7 +3509,7 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3369,7 +3527,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3378,10 +3536,13 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3771,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
         <v>-29100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-29000</v>
+      <c r="E72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G72" s="3">
         <v>-29000</v>
@@ -3624,7 +3798,7 @@
         <v>-29000</v>
       </c>
       <c r="J72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="K72" s="3">
         <v>-28900</v>
@@ -3639,7 +3813,7 @@
         <v>-28900</v>
       </c>
       <c r="O72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="P72" s="3">
         <v>-28800</v>
@@ -3648,10 +3822,13 @@
         <v>-28800</v>
       </c>
       <c r="R72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="S72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,19 +3983,22 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" s="3">
         <v>-300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -3821,7 +4007,7 @@
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -3833,7 +4019,7 @@
         <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -3848,10 +4034,13 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4000,13 +4195,16 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4370,13 +4587,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4860,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,8 +781,8 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,14 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1200,13 +1227,16 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1240,8 +1270,8 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1314,8 +1348,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1367,8 +1404,8 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,11 +1454,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1436,10 +1476,13 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1486,13 +1529,16 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1645,13 +1697,16 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1698,13 +1753,16 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,14 +1846,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1807,10 +1868,13 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1950,8 +2020,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2016,13 +2089,16 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2122,71 +2201,77 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2450,11 +2549,11 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2490,10 +2589,13 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2503,11 +2605,11 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2543,10 +2645,13 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,28 +2927,31 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2848,8 +2968,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2927,11 +3053,11 @@
       <c r="E54" s="3">
         <v>0</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2967,10 +3093,13 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3022,11 +3153,11 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3062,10 +3193,13 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,10 +3249,13 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3128,11 +3265,11 @@
       <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3141,7 +3278,7 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3156,7 +3293,7 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3168,24 +3305,27 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3194,7 +3334,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3212,7 +3352,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3221,10 +3361,13 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,22 +3643,25 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -3512,7 +3670,7 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3530,7 +3688,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -3539,10 +3697,13 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3785,11 +3959,11 @@
       <c r="E72" s="3">
         <v>-29100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-29000</v>
+      <c r="F72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H72" s="3">
         <v>-29000</v>
@@ -3801,7 +3975,7 @@
         <v>-29000</v>
       </c>
       <c r="K72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="L72" s="3">
         <v>-28900</v>
@@ -3816,7 +3990,7 @@
         <v>-28900</v>
       </c>
       <c r="P72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="Q72" s="3">
         <v>-28800</v>
@@ -3825,10 +3999,13 @@
         <v>-28800</v>
       </c>
       <c r="S72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,22 +4169,25 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -4010,7 +4196,7 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -4022,7 +4208,7 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -4037,10 +4223,13 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4198,13 +4393,16 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4590,13 +4807,16 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,11 +791,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
@@ -802,8 +809,14 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,16 +1143,22 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1154,14 +1199,20 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1230,13 +1283,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,11 +1332,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1351,11 +1418,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,11 +1480,11 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,14 +1536,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1479,10 +1558,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,13 +1617,19 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1746,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1700,18 +1803,24 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1756,13 +1865,19 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1849,17 +1970,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1871,10 +1992,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2023,11 +2162,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
@@ -2041,13 +2180,19 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2092,13 +2237,19 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2304,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2204,74 +2361,86 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2552,14 +2749,14 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2592,10 +2789,16 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2608,14 +2811,14 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2648,10 +2851,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2971,11 +3210,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3056,14 +3307,14 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
+      <c r="G54" s="3">
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3096,10 +3347,16 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3156,14 +3417,14 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3196,10 +3457,16 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3252,39 +3519,45 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>300</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3296,10 +3569,10 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3308,10 +3581,16 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,28 +3598,28 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
-        <v>300</v>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3355,19 +3634,25 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,37 +3955,43 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>300</v>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3691,19 +4006,25 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4289,19 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="E72" s="3">
         <v>-29100</v>
@@ -3962,14 +4309,14 @@
       <c r="F72" s="3">
         <v>-29100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
+      <c r="G72" s="3">
+        <v>-29100</v>
       </c>
       <c r="H72" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-29000</v>
+        <v>-29100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J72" s="3">
         <v>-29000</v>
@@ -3978,10 +4325,10 @@
         <v>-29000</v>
       </c>
       <c r="L72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="M72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="N72" s="3">
         <v>-28900</v>
@@ -3993,19 +4340,25 @@
         <v>-28900</v>
       </c>
       <c r="Q72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="R72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="S72" s="3">
         <v>-28800</v>
       </c>
       <c r="T72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="V72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4537,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,28 +4552,28 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
-        <v>-300</v>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -4211,10 +4582,10 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -4226,10 +4597,16 @@
         <v>-100</v>
       </c>
       <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4661,86 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4396,13 +4785,19 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4810,13 +5243,19 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5358,13 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,8 +801,8 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,19 +1169,22 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1205,14 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1289,13 +1316,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1338,8 +1368,8 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,8 +1458,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,8 +1523,8 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,11 +1582,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1564,10 +1604,13 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1623,13 +1666,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,13 +1801,16 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1809,18 +1861,21 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1871,13 +1926,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1976,14 +2037,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1998,10 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2168,8 +2238,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
@@ -2186,13 +2256,16 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2243,13 +2316,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,13 +2386,16 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2367,80 +2446,86 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2755,11 +2854,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2795,10 +2894,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2817,11 +2919,11 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2857,10 +2959,13 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3216,8 +3336,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3313,11 +3439,11 @@
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -3353,10 +3479,13 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3423,11 +3554,11 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3463,10 +3594,13 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3525,10 +3659,13 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,7 +3676,7 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3547,11 +3684,11 @@
       <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3560,7 +3697,7 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3575,7 +3712,7 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3587,10 +3724,13 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3604,16 +3744,16 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -3622,7 +3762,7 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3640,7 +3780,7 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -3649,10 +3789,13 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,13 +4116,16 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3976,16 +4134,16 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3994,7 +4152,7 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -4012,7 +4170,7 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -4021,10 +4179,13 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,7 +4478,7 @@
         <v>-29200</v>
       </c>
       <c r="E72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="F72" s="3">
         <v>-29100</v>
@@ -4315,11 +4489,11 @@
       <c r="H72" s="3">
         <v>-29100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-29000</v>
+      <c r="I72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>-29000</v>
@@ -4331,7 +4505,7 @@
         <v>-29000</v>
       </c>
       <c r="N72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="O72" s="3">
         <v>-28900</v>
@@ -4346,7 +4520,7 @@
         <v>-28900</v>
       </c>
       <c r="S72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="T72" s="3">
         <v>-28800</v>
@@ -4355,10 +4529,13 @@
         <v>-28800</v>
       </c>
       <c r="V72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4558,16 +4744,16 @@
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -4576,7 +4762,7 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -4588,7 +4774,7 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4603,10 +4789,13 @@
         <v>-100</v>
       </c>
       <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,80 +4856,86 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4791,13 +4986,16 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5249,13 +5466,16 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -804,8 +808,8 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,19 +1192,22 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1231,14 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1319,13 +1346,16 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1371,8 +1401,8 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1461,8 +1495,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1526,8 +1563,8 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1585,11 +1625,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1607,10 +1647,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1669,13 +1712,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1864,13 +1916,16 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1929,13 +1984,16 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2040,14 +2101,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2062,10 +2123,13 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2241,8 +2311,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2319,13 +2392,16 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2449,83 +2528,89 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2857,11 +2956,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2897,10 +2996,13 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2922,11 +3024,11 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2962,10 +3064,13 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3339,8 +3459,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3442,11 +3568,11 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -3482,10 +3608,13 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3557,11 +3688,11 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3597,10 +3728,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3662,10 +3796,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3679,7 +3816,7 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3687,11 +3824,11 @@
       <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3700,7 +3837,7 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3715,7 +3852,7 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -3727,15 +3864,18 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -3747,16 +3887,16 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3765,7 +3905,7 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3783,7 +3923,7 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -3792,10 +3932,13 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,13 +4274,16 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -4137,16 +4295,16 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -4155,7 +4313,7 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -4173,7 +4331,7 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4182,10 +4340,13 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4481,7 +4655,7 @@
         <v>-29200</v>
       </c>
       <c r="F72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="G72" s="3">
         <v>-29100</v>
@@ -4492,11 +4666,11 @@
       <c r="I72" s="3">
         <v>-29100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-29000</v>
+      <c r="J72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L72" s="3">
         <v>-29000</v>
@@ -4508,7 +4682,7 @@
         <v>-29000</v>
       </c>
       <c r="O72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="P72" s="3">
         <v>-28900</v>
@@ -4523,7 +4697,7 @@
         <v>-28900</v>
       </c>
       <c r="T72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="U72" s="3">
         <v>-28800</v>
@@ -4532,10 +4706,13 @@
         <v>-28800</v>
       </c>
       <c r="W72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="X72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,13 +4912,16 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
@@ -4747,16 +4933,16 @@
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -4765,7 +4951,7 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4777,7 +4963,7 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
@@ -4792,10 +4978,13 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4989,13 +5184,16 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5469,13 +5686,16 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6104,13 +6350,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -811,8 +814,8 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
@@ -829,8 +832,11 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1257,14 +1279,17 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1349,13 +1375,16 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1404,8 +1433,8 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1498,8 +1531,8 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
@@ -1516,16 +1549,19 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1566,8 +1602,8 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1628,11 +1667,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1650,10 +1689,13 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1715,13 +1757,16 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1919,13 +1970,16 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,13 +2041,16 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2104,14 +2164,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2126,10 +2186,13 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2314,8 +2383,8 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2395,13 +2467,16 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2531,86 +2609,92 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2959,11 +3057,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2999,10 +3097,13 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3027,11 +3128,11 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -3067,10 +3168,13 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3462,8 +3581,8 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3571,11 +3696,11 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -3611,10 +3736,13 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3691,11 +3821,11 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3731,10 +3861,13 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3799,15 +3932,18 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
@@ -3819,7 +3955,7 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3827,11 +3963,11 @@
       <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3840,7 +3976,7 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3855,7 +3991,7 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3867,10 +4003,13 @@
         <v>100</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,7 +4017,7 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -3890,16 +4029,16 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3908,7 +4047,7 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3926,7 +4065,7 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -3935,10 +4074,13 @@
         <v>100</v>
       </c>
       <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,7 +4443,7 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -4298,16 +4455,16 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -4316,7 +4473,7 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -4334,7 +4491,7 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -4343,10 +4500,13 @@
         <v>100</v>
       </c>
       <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4658,7 +4831,7 @@
         <v>-29200</v>
       </c>
       <c r="G72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="H72" s="3">
         <v>-29100</v>
@@ -4669,11 +4842,11 @@
       <c r="J72" s="3">
         <v>-29100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-29000</v>
+      <c r="K72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M72" s="3">
         <v>-29000</v>
@@ -4685,7 +4858,7 @@
         <v>-29000</v>
       </c>
       <c r="P72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="Q72" s="3">
         <v>-28900</v>
@@ -4700,7 +4873,7 @@
         <v>-28900</v>
       </c>
       <c r="U72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="V72" s="3">
         <v>-28800</v>
@@ -4709,10 +4882,13 @@
         <v>-28800</v>
       </c>
       <c r="X72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5097,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,7 +5109,7 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -4936,16 +5121,16 @@
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -4954,7 +5139,7 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4966,7 +5151,7 @@
         <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
@@ -4981,10 +5166,13 @@
         <v>-100</v>
       </c>
       <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5187,13 +5381,16 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5689,13 +5905,16 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6353,13 +6598,16 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -817,8 +821,8 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1282,14 +1305,17 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,13 +1405,16 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1436,8 +1466,8 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
+      <c r="T18" s="3">
+        <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1534,8 +1568,8 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,8 +1600,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1605,8 +1642,8 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
+      <c r="T21" s="3">
+        <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1670,11 +1710,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1692,10 +1732,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1760,13 +1803,16 @@
         <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,13 +1956,16 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1973,18 +2025,21 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2044,13 +2099,16 @@
         <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2167,14 +2228,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2189,10 +2250,13 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2386,8 +2456,8 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
@@ -2404,13 +2474,16 @@
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2470,13 +2543,16 @@
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,13 +2622,16 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2612,89 +2691,95 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3060,11 +3159,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3100,10 +3199,13 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3131,11 +3233,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -3171,10 +3273,13 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3584,8 +3704,8 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3699,11 +3825,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -3739,10 +3865,13 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3824,11 +3955,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3864,10 +3995,13 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3935,10 +4069,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3946,7 +4083,7 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -3958,7 +4095,7 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -3966,11 +4103,11 @@
       <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -3979,7 +4116,7 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3994,7 +4131,7 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -4006,10 +4143,13 @@
         <v>100</v>
       </c>
       <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +4160,7 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -4032,16 +4172,16 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -4050,7 +4190,7 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -4068,7 +4208,7 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
@@ -4077,10 +4217,13 @@
         <v>100</v>
       </c>
       <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,19 +4589,22 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>500</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -4458,16 +4616,16 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -4476,7 +4634,7 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -4494,7 +4652,7 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
@@ -4503,10 +4661,13 @@
         <v>100</v>
       </c>
       <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4834,7 +5008,7 @@
         <v>-29200</v>
       </c>
       <c r="H72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="I72" s="3">
         <v>-29100</v>
@@ -4845,11 +5019,11 @@
       <c r="K72" s="3">
         <v>-29100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-29000</v>
+      <c r="L72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>-29000</v>
@@ -4861,7 +5035,7 @@
         <v>-29000</v>
       </c>
       <c r="Q72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="R72" s="3">
         <v>-28900</v>
@@ -4876,7 +5050,7 @@
         <v>-28900</v>
       </c>
       <c r="V72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="W72" s="3">
         <v>-28800</v>
@@ -4885,10 +5059,13 @@
         <v>-28800</v>
       </c>
       <c r="Y72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5112,7 +5298,7 @@
         <v>-500</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
@@ -5124,16 +5310,16 @@
         <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -5142,7 +5328,7 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -5154,7 +5340,7 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
@@ -5169,10 +5355,13 @@
         <v>-100</v>
       </c>
       <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,89 +5431,95 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5384,13 +5579,16 @@
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5908,13 +6125,16 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6601,13 +6847,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,8 +828,8 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1308,14 +1331,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1408,13 +1435,16 @@
         <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1469,8 +1499,8 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
+      <c r="U18" s="3">
+        <v>0</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1571,8 +1605,8 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1603,11 +1640,11 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1645,8 +1682,8 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
+      <c r="U21" s="3">
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1713,11 +1753,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1735,10 +1775,13 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1806,13 +1849,16 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,13 +2008,16 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2028,18 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2102,13 +2157,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2231,14 +2292,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2253,10 +2314,13 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2459,8 +2529,8 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
@@ -2477,13 +2547,16 @@
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2546,13 +2619,16 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,13 +2701,16 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2694,92 +2773,98 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3162,11 +3261,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3202,10 +3301,13 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3236,11 +3338,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3276,10 +3378,13 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3707,8 +3827,8 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3828,11 +3954,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -3868,10 +3994,13 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3958,11 +4089,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3998,10 +4129,13 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4072,10 +4206,13 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4223,7 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -4098,7 +4235,7 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -4106,11 +4243,11 @@
       <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -4119,7 +4256,7 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -4134,7 +4271,7 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4146,10 +4283,13 @@
         <v>100</v>
       </c>
       <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4163,7 +4303,7 @@
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -4175,16 +4315,16 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -4193,7 +4333,7 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -4211,7 +4351,7 @@
         <v>200</v>
       </c>
       <c r="W60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
@@ -4220,10 +4360,13 @@
         <v>100</v>
       </c>
       <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,13 +4747,16 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -4607,7 +4765,7 @@
         <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -4619,16 +4777,16 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -4637,7 +4795,7 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4655,7 +4813,7 @@
         <v>200</v>
       </c>
       <c r="W66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>100</v>
@@ -4664,10 +4822,13 @@
         <v>100</v>
       </c>
       <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,13 +5161,16 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="E72" s="3">
         <v>-29200</v>
@@ -5011,7 +5185,7 @@
         <v>-29200</v>
       </c>
       <c r="I72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="J72" s="3">
         <v>-29100</v>
@@ -5022,11 +5196,11 @@
       <c r="L72" s="3">
         <v>-29100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-29000</v>
+      <c r="M72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O72" s="3">
         <v>-29000</v>
@@ -5038,7 +5212,7 @@
         <v>-29000</v>
       </c>
       <c r="R72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="S72" s="3">
         <v>-28900</v>
@@ -5053,7 +5227,7 @@
         <v>-28900</v>
       </c>
       <c r="W72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="X72" s="3">
         <v>-28800</v>
@@ -5062,10 +5236,13 @@
         <v>-28800</v>
       </c>
       <c r="Z72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5301,7 +5487,7 @@
         <v>-500</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -5313,16 +5499,16 @@
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -5331,7 +5517,7 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -5343,7 +5529,7 @@
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
@@ -5358,10 +5544,13 @@
         <v>-100</v>
       </c>
       <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,92 +5623,98 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5582,13 +5777,16 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6128,13 +6345,16 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6850,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -831,8 +835,8 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,14 +1357,17 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1438,13 +1465,16 @@
         <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1502,8 +1532,8 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
+      <c r="V18" s="3">
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1608,8 +1642,8 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1646,8 +1683,8 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1685,8 +1722,8 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
+      <c r="V21" s="3">
+        <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1756,11 +1796,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1778,10 +1818,13 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1852,13 +1895,16 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2060,16 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2083,18 +2135,21 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2160,13 +2215,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2295,14 +2356,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2317,10 +2378,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2532,8 +2602,8 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -2550,13 +2620,16 @@
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2622,13 +2695,16 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2780,16 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2776,95 +2855,101 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3264,11 +3363,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3304,10 +3403,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3341,11 +3443,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -3381,10 +3483,13 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3830,8 +3950,8 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3957,11 +4083,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3997,10 +4123,13 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4092,11 +4223,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4132,10 +4263,13 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4209,10 +4343,13 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,7 +4363,7 @@
         <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -4238,7 +4375,7 @@
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -4246,11 +4383,11 @@
       <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -4259,7 +4396,7 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -4274,7 +4411,7 @@
         <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
@@ -4286,10 +4423,13 @@
         <v>100</v>
       </c>
       <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4306,7 +4446,7 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -4318,16 +4458,16 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -4336,7 +4476,7 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -4354,7 +4494,7 @@
         <v>200</v>
       </c>
       <c r="X60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
@@ -4363,10 +4503,13 @@
         <v>100</v>
       </c>
       <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,13 +4905,16 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>500</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -4768,7 +4926,7 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -4780,16 +4938,16 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -4798,7 +4956,7 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4816,7 +4974,7 @@
         <v>200</v>
       </c>
       <c r="X66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
@@ -4825,10 +4983,13 @@
         <v>100</v>
       </c>
       <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,7 +5347,7 @@
         <v>-29300</v>
       </c>
       <c r="E72" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="F72" s="3">
         <v>-29200</v>
@@ -5188,7 +5362,7 @@
         <v>-29200</v>
       </c>
       <c r="J72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="K72" s="3">
         <v>-29100</v>
@@ -5199,11 +5373,11 @@
       <c r="M72" s="3">
         <v>-29100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-29000</v>
+      <c r="N72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P72" s="3">
         <v>-29000</v>
@@ -5215,7 +5389,7 @@
         <v>-29000</v>
       </c>
       <c r="S72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="T72" s="3">
         <v>-28900</v>
@@ -5230,7 +5404,7 @@
         <v>-28900</v>
       </c>
       <c r="X72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="Y72" s="3">
         <v>-28800</v>
@@ -5239,10 +5413,13 @@
         <v>-28800</v>
       </c>
       <c r="AA72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5490,7 +5676,7 @@
         <v>-500</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
@@ -5502,16 +5688,16 @@
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -5520,7 +5706,7 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
@@ -5532,7 +5718,7 @@
         <v>-200</v>
       </c>
       <c r="V76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-100</v>
@@ -5547,10 +5733,13 @@
         <v>-100</v>
       </c>
       <c r="AA76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +5815,101 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5780,13 +5975,16 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6348,13 +6565,16 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7099,13 +7345,16 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -4913,8 +4913,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -838,11 +845,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1360,14 +1405,20 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,13 +1521,19 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1535,11 +1594,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1645,11 +1712,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1686,11 +1759,11 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1725,11 +1798,11 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,14 +1878,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1821,10 +1900,16 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1898,13 +1983,19 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2138,13 +2241,19 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2218,13 +2327,19 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2359,17 +2480,17 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2381,10 +2502,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2605,11 +2744,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
@@ -2623,8 +2762,14 @@
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2698,13 +2843,19 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2858,98 +3015,110 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3366,14 +3563,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3406,10 +3603,16 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3446,14 +3649,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -3486,10 +3689,16 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3953,11 +4192,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4086,14 +4337,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -4126,10 +4377,16 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4226,14 +4487,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4266,10 +4527,16 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4346,10 +4613,16 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4366,10 +4639,10 @@
         <v>500</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -4378,31 +4651,31 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>300</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
@@ -4414,10 +4687,10 @@
         <v>200</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
@@ -4426,15 +4699,21 @@
         <v>100</v>
       </c>
       <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
@@ -4449,10 +4728,10 @@
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
@@ -4461,28 +4740,28 @@
         <v>400</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
-        <v>300</v>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -4497,19 +4776,25 @@
         <v>200</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>100</v>
       </c>
       <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,13 +5217,19 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -4929,10 +5244,10 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -4941,28 +5256,28 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
-        <v>300</v>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4977,19 +5292,25 @@
         <v>200</v>
       </c>
       <c r="Y66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>100</v>
       </c>
       <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5350,10 +5697,10 @@
         <v>-29300</v>
       </c>
       <c r="F72" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="G72" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="H72" s="3">
         <v>-29200</v>
@@ -5365,10 +5712,10 @@
         <v>-29200</v>
       </c>
       <c r="K72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="L72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="M72" s="3">
         <v>-29100</v>
@@ -5376,14 +5723,14 @@
       <c r="N72" s="3">
         <v>-29100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>-29100</v>
       </c>
       <c r="P72" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-29000</v>
+        <v>-29100</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R72" s="3">
         <v>-29000</v>
@@ -5392,10 +5739,10 @@
         <v>-29000</v>
       </c>
       <c r="T72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="U72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="V72" s="3">
         <v>-28900</v>
@@ -5407,19 +5754,25 @@
         <v>-28900</v>
       </c>
       <c r="Y72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="Z72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="AA72" s="3">
         <v>-28800</v>
       </c>
       <c r="AB72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,13 +6023,19 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-500</v>
@@ -5679,10 +6050,10 @@
         <v>-500</v>
       </c>
       <c r="I76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
@@ -5691,28 +6062,28 @@
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
@@ -5721,10 +6092,10 @@
         <v>-200</v>
       </c>
       <c r="W76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y76" s="3">
         <v>-100</v>
@@ -5736,10 +6107,16 @@
         <v>-100</v>
       </c>
       <c r="AB76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5978,13 +6367,19 @@
         <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6568,13 +7001,19 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7348,13 +7839,19 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -851,8 +855,8 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
+      <c r="Y8" s="3">
+        <v>0</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,14 +1434,17 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>4</v>
+      <c r="AC15" s="3">
+        <v>0</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1527,13 +1554,16 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1600,8 +1630,8 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
+      <c r="Y18" s="3">
+        <v>0</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1718,8 +1752,8 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1765,8 +1802,8 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1804,8 +1841,8 @@
       <c r="X21" s="3">
         <v>0</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
+      <c r="Y21" s="3">
+        <v>0</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1884,11 +1924,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1906,10 +1946,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1989,13 +2032,16 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2247,13 +2299,16 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2333,13 +2388,16 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2486,14 +2547,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2508,10 +2569,13 @@
         <v>0</v>
       </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2750,8 +2820,8 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2849,13 +2922,16 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3021,104 +3100,110 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3569,11 +3668,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3609,10 +3708,13 @@
         <v>0</v>
       </c>
       <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3655,11 +3757,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3695,10 +3797,13 @@
         <v>0</v>
       </c>
       <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4198,8 +4318,8 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4343,11 +4469,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -4383,10 +4509,13 @@
         <v>0</v>
       </c>
       <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4493,11 +4624,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4533,10 +4664,13 @@
         <v>0</v>
       </c>
       <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4619,15 +4753,18 @@
         <v>0</v>
       </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
@@ -4645,7 +4782,7 @@
         <v>500</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -4657,7 +4794,7 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -4665,11 +4802,11 @@
       <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
@@ -4678,7 +4815,7 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
@@ -4693,7 +4830,7 @@
         <v>200</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
@@ -4705,10 +4842,13 @@
         <v>100</v>
       </c>
       <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,7 +4856,7 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
@@ -4734,7 +4874,7 @@
         <v>500</v>
       </c>
       <c r="K60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
@@ -4746,16 +4886,16 @@
         <v>400</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -4764,7 +4904,7 @@
         <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -4782,7 +4922,7 @@
         <v>200</v>
       </c>
       <c r="AA60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>100</v>
@@ -4791,10 +4931,13 @@
         <v>100</v>
       </c>
       <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,7 +5390,7 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
@@ -5250,7 +5408,7 @@
         <v>500</v>
       </c>
       <c r="K66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
@@ -5262,16 +5420,16 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
@@ -5280,7 +5438,7 @@
         <v>300</v>
       </c>
       <c r="U66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -5298,7 +5456,7 @@
         <v>200</v>
       </c>
       <c r="AA66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>100</v>
@@ -5307,10 +5465,13 @@
         <v>100</v>
       </c>
       <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5703,7 +5877,7 @@
         <v>-29300</v>
       </c>
       <c r="H72" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="I72" s="3">
         <v>-29200</v>
@@ -5718,7 +5892,7 @@
         <v>-29200</v>
       </c>
       <c r="M72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="N72" s="3">
         <v>-29100</v>
@@ -5729,11 +5903,11 @@
       <c r="P72" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-29000</v>
+      <c r="Q72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S72" s="3">
         <v>-29000</v>
@@ -5745,7 +5919,7 @@
         <v>-29000</v>
       </c>
       <c r="V72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="W72" s="3">
         <v>-28900</v>
@@ -5760,7 +5934,7 @@
         <v>-28900</v>
       </c>
       <c r="AA72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="AB72" s="3">
         <v>-28800</v>
@@ -5769,10 +5943,13 @@
         <v>-28800</v>
       </c>
       <c r="AD72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6038,7 +6224,7 @@
         <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
@@ -6056,7 +6242,7 @@
         <v>-500</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
@@ -6068,16 +6254,16 @@
         <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
@@ -6086,7 +6272,7 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
@@ -6098,7 +6284,7 @@
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z76" s="3">
         <v>-100</v>
@@ -6113,10 +6299,13 @@
         <v>-100</v>
       </c>
       <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6373,13 +6568,16 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7007,13 +7224,16 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7845,13 +8091,16 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>AASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -858,8 +862,8 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1437,14 +1460,17 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>4</v>
+      <c r="AD15" s="3">
+        <v>0</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1557,13 +1584,16 @@
         <v>0</v>
       </c>
       <c r="AD17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1633,8 +1663,8 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
+      <c r="Z18" s="3">
+        <v>0</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1755,8 +1789,8 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1805,8 +1842,8 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1844,8 +1881,8 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
+      <c r="Z21" s="3">
+        <v>0</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1927,11 +1967,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1949,10 +1989,13 @@
         <v>0</v>
       </c>
       <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2035,13 +2078,16 @@
         <v>0</v>
       </c>
       <c r="AD23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2302,13 +2354,16 @@
         <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2391,13 +2446,16 @@
         <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2550,14 +2611,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -2572,10 +2633,13 @@
         <v>0</v>
       </c>
       <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2823,8 +2893,8 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
@@ -2841,8 +2911,11 @@
       <c r="AE32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2925,13 +2998,16 @@
         <v>0</v>
       </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3103,107 +3182,113 @@
         <v>0</v>
       </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3671,11 +3770,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3711,10 +3810,13 @@
         <v>0</v>
       </c>
       <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3760,11 +3862,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -3800,10 +3902,13 @@
         <v>0</v>
       </c>
       <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4321,8 +4441,8 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
+      <c r="AA52" s="3">
+        <v>0</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>4</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4472,11 +4598,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -4512,10 +4638,13 @@
         <v>0</v>
       </c>
       <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4627,11 +4758,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4667,10 +4798,13 @@
         <v>0</v>
       </c>
       <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4756,10 +4890,13 @@
         <v>0</v>
       </c>
       <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,7 +4904,7 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
@@ -4785,7 +4922,7 @@
         <v>500</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -4797,7 +4934,7 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -4805,11 +4942,11 @@
       <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -4818,7 +4955,7 @@
         <v>300</v>
       </c>
       <c r="V59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
@@ -4833,7 +4970,7 @@
         <v>200</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
@@ -4845,10 +4982,13 @@
         <v>100</v>
       </c>
       <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF59" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4859,7 +4999,7 @@
         <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -4877,7 +5017,7 @@
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
@@ -4889,16 +5029,16 @@
         <v>400</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
@@ -4907,7 +5047,7 @@
         <v>300</v>
       </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
@@ -4925,7 +5065,7 @@
         <v>200</v>
       </c>
       <c r="AB60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC60" s="3">
         <v>100</v>
@@ -4934,10 +5074,13 @@
         <v>100</v>
       </c>
       <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5393,7 +5551,7 @@
         <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -5411,7 +5569,7 @@
         <v>500</v>
       </c>
       <c r="L66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -5423,16 +5581,16 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
@@ -5441,7 +5599,7 @@
         <v>300</v>
       </c>
       <c r="V66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
@@ -5459,7 +5617,7 @@
         <v>200</v>
       </c>
       <c r="AB66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC66" s="3">
         <v>100</v>
@@ -5468,10 +5626,13 @@
         <v>100</v>
       </c>
       <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF66" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5880,7 +6054,7 @@
         <v>-29300</v>
       </c>
       <c r="I72" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="J72" s="3">
         <v>-29200</v>
@@ -5895,7 +6069,7 @@
         <v>-29200</v>
       </c>
       <c r="N72" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="O72" s="3">
         <v>-29100</v>
@@ -5906,11 +6080,11 @@
       <c r="Q72" s="3">
         <v>-29100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-29000</v>
+      <c r="R72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T72" s="3">
         <v>-29000</v>
@@ -5922,7 +6096,7 @@
         <v>-29000</v>
       </c>
       <c r="W72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="X72" s="3">
         <v>-28900</v>
@@ -5937,7 +6111,7 @@
         <v>-28900</v>
       </c>
       <c r="AB72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="AC72" s="3">
         <v>-28800</v>
@@ -5946,10 +6120,13 @@
         <v>-28800</v>
       </c>
       <c r="AE72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-28700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6227,7 +6413,7 @@
         <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
@@ -6245,7 +6431,7 @@
         <v>-500</v>
       </c>
       <c r="L76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
@@ -6257,16 +6443,16 @@
         <v>-400</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
@@ -6275,7 +6461,7 @@
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
@@ -6287,7 +6473,7 @@
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-100</v>
@@ -6302,10 +6488,13 @@
         <v>-100</v>
       </c>
       <c r="AE76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF76" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6571,13 +6766,16 @@
         <v>0</v>
       </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7227,13 +7444,16 @@
         <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8094,13 +8340,16 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
